--- a/public/tokopedia/file_update/TOKOPEDIA_PRODUCT_UPDATE_1612186976.xlsx
+++ b/public/tokopedia/file_update/TOKOPEDIA_PRODUCT_UPDATE_1612186976.xlsx
@@ -164,199 +164,199 @@
     <t>https://tokopedia.com/hidaastore/essen-murni-abadi-aroma-melati-super</t>
   </si>
   <si>
+    <t>25500</t>
+  </si>
+  <si>
+    <t>36e0a2dd7335d76329c7</t>
+  </si>
+  <si>
+    <t>1265763775</t>
+  </si>
+  <si>
+    <t>ESSEN NILA 21 untuk Umpan Lukut</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-nila-21-untuk-umpan-lukut</t>
+  </si>
+  <si>
+    <t>c02c49f633ca3ba45145</t>
+  </si>
+  <si>
+    <t>1265764354</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN BAKAU 234</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-bakau-234</t>
+  </si>
+  <si>
+    <t>35850</t>
+  </si>
+  <si>
+    <t>ffcf9b1251d4741cdeb8</t>
+  </si>
+  <si>
+    <t>1265765249</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN BLEWAH SURAWUNG SPECIAL</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-blewah-surawung-special</t>
+  </si>
+  <si>
+    <t>37000</t>
+  </si>
+  <si>
+    <t>d05cae90238b5a3cc806</t>
+  </si>
+  <si>
+    <t>1264444230</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN CABE SEREH MELATI</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-cabe-sereh-melati</t>
+  </si>
+  <si>
+    <t>6013256b5d1e1671d188</t>
+  </si>
+  <si>
+    <t>1265763505</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN DUREN KAWENI SPECIAL untuk mancing</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-duren-kaweni-special-untuk-mancing</t>
+  </si>
+  <si>
+    <t>843199010e8142e6242f</t>
+  </si>
+  <si>
+    <t>1265763774</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN NILA GS</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-nila-gs</t>
+  </si>
+  <si>
+    <t>3179825bd25a7376798d</t>
+  </si>
+  <si>
+    <t>1265760989</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN SEREH GARLIC MELATI SPESIAL</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-sereh-garlic-melati-spesial</t>
+  </si>
+  <si>
+    <t>cf93d9d6a66a532bc1bb</t>
+  </si>
+  <si>
+    <t>1265763797</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN SPECIAL ANGGUR SPRITE NILAM</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-special-anggur-sprite-nilam</t>
+  </si>
+  <si>
+    <t>e7edc0fe7a75e68bff66</t>
+  </si>
+  <si>
+    <t>1265758696</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN STRAWBERRY GARLIC SEREH</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-strawberry-garlic-sereh</t>
+  </si>
+  <si>
+    <t>690357503f725aa5c719</t>
+  </si>
+  <si>
+    <t>1265763802</t>
+  </si>
+  <si>
+    <t>ESSEN OPLOSAN SUPER MELON LECI PALA</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-oplosan-super-melon-leci-pala</t>
+  </si>
+  <si>
+    <t>f9116fd9b09a1ace4fd2</t>
+  </si>
+  <si>
+    <t>1265765627</t>
+  </si>
+  <si>
+    <t>ESSEN POWER BAIT L SUPER UTK LUMUT LUMUT</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-power-bait-l-super-utk-lumut-lumut</t>
+  </si>
+  <si>
+    <t>ffcb986edd10b4b3105a</t>
+  </si>
+  <si>
+    <t>1265760695</t>
+  </si>
+  <si>
+    <t>ESSEN RED FISH AROMA PISANG SIRSAK LEMPUYANG KAWENI</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essen-red-fish-aroma-pisang-sirsak-lempuyang-kaweni</t>
+  </si>
+  <si>
+    <t>67e7e526c4787308c9aa</t>
+  </si>
+  <si>
+    <t>1264073657</t>
+  </si>
+  <si>
+    <t>ESSENCE / FLAVOUR IMPORT FOR DIY E-LIQUID PULUHAN VARIAN 15ML</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essence-flavour-import-for-diy-e-liquid-puluhan-varian-15ml</t>
+  </si>
+  <si>
+    <t>1c0b1432631dd4c4aaec</t>
+  </si>
+  <si>
+    <t>1264455605</t>
+  </si>
+  <si>
+    <t>ESSENCE PROBAIT</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/essence-probait</t>
+  </si>
+  <si>
+    <t>60000</t>
+  </si>
+  <si>
+    <t>df1a5451bf31ac518a47</t>
+  </si>
+  <si>
+    <t>1264197484</t>
+  </si>
+  <si>
+    <t>EVA SHOCKPROOF CASE HDD 2.5 INCH HD402 POUCH BAG EXTERNAL HDD POWER</t>
+  </si>
+  <si>
+    <t>https://tokopedia.com/hidaastore/eva-shockproof-case-hdd-2-5-inch-hd402-pouch-bag-external-hdd-power</t>
+  </si>
+  <si>
     <t>Aktif</t>
-  </si>
-  <si>
-    <t>25500</t>
-  </si>
-  <si>
-    <t>36e0a2dd7335d76329c7</t>
-  </si>
-  <si>
-    <t>1265763775</t>
-  </si>
-  <si>
-    <t>ESSEN NILA 21 untuk Umpan Lukut</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-nila-21-untuk-umpan-lukut</t>
-  </si>
-  <si>
-    <t>c02c49f633ca3ba45145</t>
-  </si>
-  <si>
-    <t>1265764354</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN BAKAU 234</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-bakau-234</t>
-  </si>
-  <si>
-    <t>35850</t>
-  </si>
-  <si>
-    <t>ffcf9b1251d4741cdeb8</t>
-  </si>
-  <si>
-    <t>1265765249</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN BLEWAH SURAWUNG SPECIAL</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-blewah-surawung-special</t>
-  </si>
-  <si>
-    <t>37000</t>
-  </si>
-  <si>
-    <t>d05cae90238b5a3cc806</t>
-  </si>
-  <si>
-    <t>1264444230</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN CABE SEREH MELATI</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-cabe-sereh-melati</t>
-  </si>
-  <si>
-    <t>6013256b5d1e1671d188</t>
-  </si>
-  <si>
-    <t>1265763505</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN DUREN KAWENI SPECIAL untuk mancing</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-duren-kaweni-special-untuk-mancing</t>
-  </si>
-  <si>
-    <t>843199010e8142e6242f</t>
-  </si>
-  <si>
-    <t>1265763774</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN NILA GS</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-nila-gs</t>
-  </si>
-  <si>
-    <t>3179825bd25a7376798d</t>
-  </si>
-  <si>
-    <t>1265760989</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN SEREH GARLIC MELATI SPESIAL</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-sereh-garlic-melati-spesial</t>
-  </si>
-  <si>
-    <t>cf93d9d6a66a532bc1bb</t>
-  </si>
-  <si>
-    <t>1265763797</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN SPECIAL ANGGUR SPRITE NILAM</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-special-anggur-sprite-nilam</t>
-  </si>
-  <si>
-    <t>e7edc0fe7a75e68bff66</t>
-  </si>
-  <si>
-    <t>1265758696</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN STRAWBERRY GARLIC SEREH</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-strawberry-garlic-sereh</t>
-  </si>
-  <si>
-    <t>690357503f725aa5c719</t>
-  </si>
-  <si>
-    <t>1265763802</t>
-  </si>
-  <si>
-    <t>ESSEN OPLOSAN SUPER MELON LECI PALA</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-oplosan-super-melon-leci-pala</t>
-  </si>
-  <si>
-    <t>f9116fd9b09a1ace4fd2</t>
-  </si>
-  <si>
-    <t>1265765627</t>
-  </si>
-  <si>
-    <t>ESSEN POWER BAIT L SUPER UTK LUMUT LUMUT</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-power-bait-l-super-utk-lumut-lumut</t>
-  </si>
-  <si>
-    <t>ffcb986edd10b4b3105a</t>
-  </si>
-  <si>
-    <t>1265760695</t>
-  </si>
-  <si>
-    <t>ESSEN RED FISH AROMA PISANG SIRSAK LEMPUYANG KAWENI</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essen-red-fish-aroma-pisang-sirsak-lempuyang-kaweni</t>
-  </si>
-  <si>
-    <t>67e7e526c4787308c9aa</t>
-  </si>
-  <si>
-    <t>1264073657</t>
-  </si>
-  <si>
-    <t>ESSENCE / FLAVOUR IMPORT FOR DIY E-LIQUID PULUHAN VARIAN 15ML</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essence-flavour-import-for-diy-e-liquid-puluhan-varian-15ml</t>
-  </si>
-  <si>
-    <t>1c0b1432631dd4c4aaec</t>
-  </si>
-  <si>
-    <t>1264455605</t>
-  </si>
-  <si>
-    <t>ESSENCE PROBAIT</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/essence-probait</t>
-  </si>
-  <si>
-    <t>60000</t>
-  </si>
-  <si>
-    <t>df1a5451bf31ac518a47</t>
-  </si>
-  <si>
-    <t>1264197484</t>
-  </si>
-  <si>
-    <t>EVA SHOCKPROOF CASE HDD 2.5 INCH HD402 POUCH BAG EXTERNAL HDD POWER</t>
-  </si>
-  <si>
-    <t>https://tokopedia.com/hidaastore/eva-shockproof-case-hdd-2-5-inch-hd402-pouch-bag-external-hdd-power</t>
   </si>
   <si>
     <t>1f4c556f5dcda8c87982</t>
@@ -7361,25 +7361,25 @@
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9"/>
       <c r="B9" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>53</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>26</v>
@@ -7392,25 +7392,25 @@
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="K9" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10"/>
       <c r="B10" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>26</v>
@@ -7423,25 +7423,25 @@
       </c>
       <c r="H10" s="24"/>
       <c r="I10" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>58</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11"/>
       <c r="B11" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="D11" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>26</v>
@@ -7454,25 +7454,25 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12"/>
       <c r="B12" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="D12" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>67</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>26</v>
@@ -7485,25 +7485,25 @@
       </c>
       <c r="H12" s="24"/>
       <c r="I12" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13"/>
       <c r="B13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>71</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>26</v>
@@ -7516,25 +7516,25 @@
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14"/>
       <c r="B14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="D14" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>75</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>26</v>
@@ -7547,25 +7547,25 @@
       </c>
       <c r="H14" s="24"/>
       <c r="I14" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J14" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15"/>
       <c r="B15" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="D15" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="E15" s="25" t="s">
         <v>26</v>
@@ -7578,25 +7578,25 @@
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16"/>
       <c r="B16" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="D16" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>26</v>
@@ -7609,25 +7609,25 @@
       </c>
       <c r="H16" s="24"/>
       <c r="I16" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J16" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17"/>
       <c r="B17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="D17" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="E17" s="25" t="s">
         <v>26</v>
@@ -7640,25 +7640,25 @@
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18"/>
       <c r="B18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="D18" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>91</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>26</v>
@@ -7671,25 +7671,25 @@
       </c>
       <c r="H18" s="24"/>
       <c r="I18" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19"/>
       <c r="B19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="D19" s="25" t="s">
         <v>94</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>95</v>
       </c>
       <c r="E19" s="25" t="s">
         <v>26</v>
@@ -7702,25 +7702,25 @@
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J19" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20"/>
       <c r="B20" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>99</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>26</v>
@@ -7733,25 +7733,25 @@
       </c>
       <c r="H20" s="24"/>
       <c r="I20" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21"/>
       <c r="B21" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="D21" s="25" t="s">
         <v>102</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>103</v>
       </c>
       <c r="E21" s="25" t="s">
         <v>26</v>
@@ -7764,25 +7764,25 @@
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>49</v>
-      </c>
       <c r="K21" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22"/>
       <c r="B22" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="D22" s="25" t="s">
         <v>106</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>107</v>
       </c>
       <c r="E22" s="25" t="s">
         <v>26</v>
@@ -7795,25 +7795,25 @@
       </c>
       <c r="H22" s="24"/>
       <c r="I22" s="24" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J22" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="24" t="s">
         <v>108</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23"/>
       <c r="B23" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>112</v>
       </c>
       <c r="E23" s="25" t="s">
         <v>26</v>
@@ -7826,10 +7826,10 @@
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K23" s="24" t="s">
         <v>113</v>
@@ -7857,7 +7857,7 @@
       </c>
       <c r="H24" s="24"/>
       <c r="I24" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J24" s="24" t="s">
         <v>117</v>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J25" s="24" t="s">
         <v>122</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="H26" s="24"/>
       <c r="I26" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J26" s="24" t="s">
         <v>127</v>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J27" s="24" t="s">
         <v>127</v>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="H28" s="24"/>
       <c r="I28" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J28" s="24" t="s">
         <v>127</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J29" s="24" t="s">
         <v>140</v>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="H30" s="24"/>
       <c r="I30" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J30" s="24" t="s">
         <v>140</v>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J31" s="24" t="s">
         <v>140</v>
@@ -8105,7 +8105,7 @@
       </c>
       <c r="H32" s="24"/>
       <c r="I32" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J32" s="24" t="s">
         <v>153</v>
@@ -8136,7 +8136,7 @@
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J33" s="24" t="s">
         <v>158</v>
@@ -8167,7 +8167,7 @@
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>163</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J35" s="24" t="s">
         <v>168</v>
@@ -8229,7 +8229,7 @@
       </c>
       <c r="H36" s="24"/>
       <c r="I36" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J36" s="24" t="s">
         <v>173</v>
@@ -8260,7 +8260,7 @@
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J37" s="24" t="s">
         <v>178</v>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="H38" s="24"/>
       <c r="I38" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J38" s="24" t="s">
         <v>183</v>
@@ -8322,7 +8322,7 @@
       </c>
       <c r="H39" s="24"/>
       <c r="I39" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J39" s="24" t="s">
         <v>127</v>
@@ -8353,7 +8353,7 @@
       </c>
       <c r="H40" s="24"/>
       <c r="I40" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J40" s="24" t="s">
         <v>192</v>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J41" s="24" t="s">
         <v>197</v>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J42" s="24" t="s">
         <v>197</v>
@@ -8446,10 +8446,10 @@
       </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J43" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K43" s="24" t="s">
         <v>206</v>
@@ -8477,7 +8477,7 @@
       </c>
       <c r="H44" s="24"/>
       <c r="I44" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J44" s="24" t="s">
         <v>210</v>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="H45" s="24"/>
       <c r="I45" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J45" s="24" t="s">
         <v>215</v>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="H46" s="24"/>
       <c r="I46" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J46" s="24" t="s">
         <v>197</v>
@@ -8570,7 +8570,7 @@
       </c>
       <c r="H47" s="24"/>
       <c r="I47" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J47" s="24" t="s">
         <v>197</v>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="H48" s="24"/>
       <c r="I48" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J48" s="24" t="s">
         <v>228</v>
@@ -8632,7 +8632,7 @@
       </c>
       <c r="H49" s="24"/>
       <c r="I49" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J49" s="24" t="s">
         <v>228</v>
@@ -8663,7 +8663,7 @@
       </c>
       <c r="H50" s="24"/>
       <c r="I50" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J50" s="24" t="s">
         <v>228</v>
@@ -8694,7 +8694,7 @@
       </c>
       <c r="H51" s="24"/>
       <c r="I51" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J51" s="24" t="s">
         <v>197</v>
@@ -8725,7 +8725,7 @@
       </c>
       <c r="H52" s="24"/>
       <c r="I52" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J52" s="24" t="s">
         <v>245</v>
@@ -8756,7 +8756,7 @@
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J53" s="24" t="s">
         <v>250</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="H54" s="24"/>
       <c r="I54" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J54" s="24" t="s">
         <v>255</v>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="H55" s="24"/>
       <c r="I55" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J55" s="24" t="s">
         <v>210</v>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="H56" s="24"/>
       <c r="I56" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J56" s="24" t="s">
         <v>264</v>
@@ -8880,10 +8880,10 @@
       </c>
       <c r="H57" s="24"/>
       <c r="I57" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K57" s="24" t="s">
         <v>269</v>
@@ -8911,7 +8911,7 @@
       </c>
       <c r="H58" s="24"/>
       <c r="I58" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J58" s="24" t="s">
         <v>273</v>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="H59" s="24"/>
       <c r="I59" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J59" s="24" t="s">
         <v>278</v>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="H60" s="24"/>
       <c r="I60" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J60" s="24" t="s">
         <v>283</v>
@@ -9004,7 +9004,7 @@
       </c>
       <c r="H61" s="24"/>
       <c r="I61" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J61" s="24" t="s">
         <v>288</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="H62" s="24"/>
       <c r="I62" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J62" s="24" t="s">
         <v>293</v>
@@ -9066,7 +9066,7 @@
       </c>
       <c r="H63" s="24"/>
       <c r="I63" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J63" s="24" t="s">
         <v>298</v>
@@ -9097,7 +9097,7 @@
       </c>
       <c r="H64" s="24"/>
       <c r="I64" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J64" s="24" t="s">
         <v>303</v>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="H65" s="24"/>
       <c r="I65" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J65" s="24" t="s">
         <v>308</v>
@@ -9159,7 +9159,7 @@
       </c>
       <c r="H66" s="24"/>
       <c r="I66" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J66" s="24" t="s">
         <v>313</v>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="H67" s="24"/>
       <c r="I67" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J67" s="24" t="s">
         <v>313</v>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="H68" s="24"/>
       <c r="I68" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J68" s="24" t="s">
         <v>228</v>
@@ -9252,7 +9252,7 @@
       </c>
       <c r="H69" s="24"/>
       <c r="I69" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J69" s="24" t="s">
         <v>197</v>
@@ -9283,7 +9283,7 @@
       </c>
       <c r="H70" s="24"/>
       <c r="I70" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J70" s="24" t="s">
         <v>330</v>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="H71" s="24"/>
       <c r="I71" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J71" s="24" t="s">
         <v>335</v>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="H72" s="24"/>
       <c r="I72" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J72" s="24" t="s">
         <v>340</v>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="H73" s="24"/>
       <c r="I73" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J73" s="24" t="s">
         <v>245</v>
@@ -9407,7 +9407,7 @@
       </c>
       <c r="H74" s="24"/>
       <c r="I74" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J74" s="24" t="s">
         <v>349</v>
@@ -9438,7 +9438,7 @@
       </c>
       <c r="H75" s="24"/>
       <c r="I75" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J75" s="24" t="s">
         <v>354</v>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="H76" s="24"/>
       <c r="I76" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J76" s="24" t="s">
         <v>359</v>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="H77" s="24"/>
       <c r="I77" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J77" s="24" t="s">
         <v>364</v>
@@ -9531,7 +9531,7 @@
       </c>
       <c r="H78" s="24"/>
       <c r="I78" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J78" s="24" t="s">
         <v>364</v>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="H79" s="24"/>
       <c r="I79" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J79" s="24" t="s">
         <v>373</v>
@@ -9593,7 +9593,7 @@
       </c>
       <c r="H80" s="24"/>
       <c r="I80" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J80" s="24" t="s">
         <v>378</v>
@@ -9624,7 +9624,7 @@
       </c>
       <c r="H81" s="24"/>
       <c r="I81" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J81" s="24" t="s">
         <v>378</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="H82" s="24"/>
       <c r="I82" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J82" s="24" t="s">
         <v>387</v>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="H83" s="24"/>
       <c r="I83" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J83" s="24" t="s">
         <v>364</v>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="H84" s="24"/>
       <c r="I84" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J84" s="24" t="s">
         <v>364</v>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="H85" s="24"/>
       <c r="I85" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J85" s="24" t="s">
         <v>364</v>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="H86" s="24"/>
       <c r="I86" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J86" s="24" t="s">
         <v>404</v>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="H87" s="24"/>
       <c r="I87" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J87" s="24" t="s">
         <v>197</v>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="H88" s="24"/>
       <c r="I88" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J88" s="24" t="s">
         <v>364</v>
@@ -9872,7 +9872,7 @@
       </c>
       <c r="H89" s="24"/>
       <c r="I89" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J89" s="24" t="s">
         <v>417</v>
@@ -9903,7 +9903,7 @@
       </c>
       <c r="H90" s="24"/>
       <c r="I90" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J90" s="24" t="s">
         <v>127</v>
@@ -9934,7 +9934,7 @@
       </c>
       <c r="H91" s="24"/>
       <c r="I91" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J91" s="24" t="s">
         <v>426</v>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="H92" s="24"/>
       <c r="I92" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J92" s="24" t="s">
         <v>43</v>
@@ -9996,7 +9996,7 @@
       </c>
       <c r="H93" s="24"/>
       <c r="I93" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J93" s="24" t="s">
         <v>354</v>
@@ -10027,7 +10027,7 @@
       </c>
       <c r="H94" s="24"/>
       <c r="I94" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J94" s="24" t="s">
         <v>273</v>
@@ -10058,7 +10058,7 @@
       </c>
       <c r="H95" s="24"/>
       <c r="I95" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J95" s="24" t="s">
         <v>443</v>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="H96" s="24"/>
       <c r="I96" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J96" s="24" t="s">
         <v>127</v>
@@ -10120,7 +10120,7 @@
       </c>
       <c r="H97" s="24"/>
       <c r="I97" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J97" s="24" t="s">
         <v>452</v>
@@ -10151,7 +10151,7 @@
       </c>
       <c r="H98" s="24"/>
       <c r="I98" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J98" s="24" t="s">
         <v>457</v>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="H99" s="24"/>
       <c r="I99" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J99" s="24" t="s">
         <v>462</v>
@@ -10213,7 +10213,7 @@
       </c>
       <c r="H100" s="24"/>
       <c r="I100" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J100" s="24" t="s">
         <v>467</v>
@@ -10244,7 +10244,7 @@
       </c>
       <c r="H101" s="24"/>
       <c r="I101" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J101" s="24" t="s">
         <v>43</v>
@@ -10275,10 +10275,10 @@
       </c>
       <c r="H102" s="24"/>
       <c r="I102" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J102" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J102" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K102" s="24" t="s">
         <v>476</v>
@@ -10306,7 +10306,7 @@
       </c>
       <c r="H103" s="24"/>
       <c r="I103" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J103" s="24" t="s">
         <v>43</v>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="H104" s="24"/>
       <c r="I104" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J104" s="24" t="s">
         <v>484</v>
@@ -10368,7 +10368,7 @@
       </c>
       <c r="H105" s="24"/>
       <c r="I105" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J105" s="24" t="s">
         <v>43</v>
@@ -10399,7 +10399,7 @@
       </c>
       <c r="H106" s="24"/>
       <c r="I106" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J106" s="24" t="s">
         <v>493</v>
@@ -10430,7 +10430,7 @@
       </c>
       <c r="H107" s="24"/>
       <c r="I107" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J107" s="24" t="s">
         <v>364</v>
@@ -10461,7 +10461,7 @@
       </c>
       <c r="H108" s="24"/>
       <c r="I108" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J108" s="24" t="s">
         <v>228</v>
@@ -10492,7 +10492,7 @@
       </c>
       <c r="H109" s="24"/>
       <c r="I109" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J109" s="24" t="s">
         <v>245</v>
@@ -10523,7 +10523,7 @@
       </c>
       <c r="H110" s="24"/>
       <c r="I110" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J110" s="24" t="s">
         <v>117</v>
@@ -10554,7 +10554,7 @@
       </c>
       <c r="H111" s="24"/>
       <c r="I111" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J111" s="24" t="s">
         <v>514</v>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="H112" s="24"/>
       <c r="I112" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J112" s="24" t="s">
         <v>519</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="H113" s="24"/>
       <c r="I113" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J113" s="24" t="s">
         <v>140</v>
@@ -10647,7 +10647,7 @@
       </c>
       <c r="H114" s="24"/>
       <c r="I114" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J114" s="24" t="s">
         <v>140</v>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="H115" s="24"/>
       <c r="I115" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J115" s="24" t="s">
         <v>532</v>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="H116" s="24"/>
       <c r="I116" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J116" s="24" t="s">
         <v>537</v>
@@ -10740,7 +10740,7 @@
       </c>
       <c r="H117" s="24"/>
       <c r="I117" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J117" s="24" t="s">
         <v>387</v>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="H118" s="24"/>
       <c r="I118" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J118" s="24" t="s">
         <v>457</v>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="H119" s="24"/>
       <c r="I119" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J119" s="24" t="s">
         <v>364</v>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="H120" s="24"/>
       <c r="I120" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J120" s="24" t="s">
         <v>293</v>
@@ -10864,7 +10864,7 @@
       </c>
       <c r="H121" s="24"/>
       <c r="I121" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J121" s="24" t="s">
         <v>559</v>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="H122" s="24"/>
       <c r="I122" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J122" s="24" t="s">
         <v>43</v>
@@ -10926,7 +10926,7 @@
       </c>
       <c r="H123" s="24"/>
       <c r="I123" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J123" s="24" t="s">
         <v>568</v>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="H124" s="24"/>
       <c r="I124" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J124" s="24" t="s">
         <v>573</v>
@@ -10988,7 +10988,7 @@
       </c>
       <c r="H125" s="24"/>
       <c r="I125" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J125" s="24" t="s">
         <v>158</v>
@@ -11019,7 +11019,7 @@
       </c>
       <c r="H126" s="24"/>
       <c r="I126" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J126" s="24" t="s">
         <v>582</v>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="H127" s="24"/>
       <c r="I127" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J127" s="24" t="s">
         <v>127</v>
@@ -11081,10 +11081,10 @@
       </c>
       <c r="H128" s="24"/>
       <c r="I128" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J128" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K128" s="24" t="s">
         <v>591</v>
@@ -11112,7 +11112,7 @@
       </c>
       <c r="H129" s="24"/>
       <c r="I129" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J129" s="24" t="s">
         <v>595</v>
@@ -11143,7 +11143,7 @@
       </c>
       <c r="H130" s="24"/>
       <c r="I130" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J130" s="24" t="s">
         <v>600</v>
@@ -11174,7 +11174,7 @@
       </c>
       <c r="H131" s="24"/>
       <c r="I131" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J131" s="24" t="s">
         <v>568</v>
@@ -11205,7 +11205,7 @@
       </c>
       <c r="H132" s="24"/>
       <c r="I132" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J132" s="24" t="s">
         <v>514</v>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="H133" s="24"/>
       <c r="I133" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J133" s="24" t="s">
         <v>417</v>
@@ -11267,7 +11267,7 @@
       </c>
       <c r="H134" s="24"/>
       <c r="I134" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J134" s="24" t="s">
         <v>29</v>
@@ -11298,7 +11298,7 @@
       </c>
       <c r="H135" s="24"/>
       <c r="I135" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J135" s="24" t="s">
         <v>245</v>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="H136" s="24"/>
       <c r="I136" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J136" s="24" t="s">
         <v>625</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="H137" s="24"/>
       <c r="I137" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J137" s="24" t="s">
         <v>484</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H138" s="24"/>
       <c r="I138" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J138" s="24" t="s">
         <v>273</v>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="H139" s="24"/>
       <c r="I139" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J139" s="24" t="s">
         <v>638</v>
@@ -11453,10 +11453,10 @@
       </c>
       <c r="H140" s="24"/>
       <c r="I140" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J140" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K140" s="24" t="s">
         <v>643</v>
@@ -11484,7 +11484,7 @@
       </c>
       <c r="H141" s="24"/>
       <c r="I141" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J141" s="24" t="s">
         <v>140</v>
@@ -11515,7 +11515,7 @@
       </c>
       <c r="H142" s="24"/>
       <c r="I142" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J142" s="24" t="s">
         <v>340</v>
@@ -11546,7 +11546,7 @@
       </c>
       <c r="H143" s="24"/>
       <c r="I143" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J143" s="24" t="s">
         <v>127</v>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="H144" s="24"/>
       <c r="I144" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J144" s="24" t="s">
         <v>659</v>
@@ -11608,7 +11608,7 @@
       </c>
       <c r="H145" s="24"/>
       <c r="I145" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J145" s="24" t="s">
         <v>664</v>
@@ -11639,7 +11639,7 @@
       </c>
       <c r="H146" s="24"/>
       <c r="I146" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J146" s="24" t="s">
         <v>443</v>
@@ -11670,7 +11670,7 @@
       </c>
       <c r="H147" s="24"/>
       <c r="I147" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J147" s="24" t="s">
         <v>173</v>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="H148" s="24"/>
       <c r="I148" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J148" s="24" t="s">
         <v>677</v>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="H149" s="24"/>
       <c r="I149" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J149" s="24" t="s">
         <v>255</v>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="H150" s="24"/>
       <c r="I150" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J150" s="24" t="s">
         <v>288</v>
@@ -11794,7 +11794,7 @@
       </c>
       <c r="H151" s="24"/>
       <c r="I151" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J151" s="24" t="s">
         <v>158</v>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="H152" s="24"/>
       <c r="I152" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J152" s="24" t="s">
         <v>694</v>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="H153" s="24"/>
       <c r="I153" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J153" s="24" t="s">
         <v>699</v>
@@ -11887,7 +11887,7 @@
       </c>
       <c r="H154" s="24"/>
       <c r="I154" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J154" s="24" t="s">
         <v>704</v>
@@ -11918,7 +11918,7 @@
       </c>
       <c r="H155" s="24"/>
       <c r="I155" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J155" s="24" t="s">
         <v>709</v>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="H156" s="24"/>
       <c r="I156" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J156" s="24" t="s">
         <v>659</v>
@@ -11980,7 +11980,7 @@
       </c>
       <c r="H157" s="24"/>
       <c r="I157" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J157" s="24" t="s">
         <v>659</v>
@@ -12011,7 +12011,7 @@
       </c>
       <c r="H158" s="24"/>
       <c r="I158" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J158" s="24" t="s">
         <v>722</v>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="H159" s="24"/>
       <c r="I159" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J159" s="24" t="s">
         <v>722</v>
@@ -12073,10 +12073,10 @@
       </c>
       <c r="H160" s="24"/>
       <c r="I160" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J160" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K160" s="24" t="s">
         <v>731</v>
@@ -12104,10 +12104,10 @@
       </c>
       <c r="H161" s="24"/>
       <c r="I161" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J161" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K161" s="24" t="s">
         <v>735</v>
@@ -12135,7 +12135,7 @@
       </c>
       <c r="H162" s="24"/>
       <c r="I162" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J162" s="24" t="s">
         <v>739</v>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="H163" s="24"/>
       <c r="I163" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J163" s="24" t="s">
         <v>722</v>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="H164" s="24"/>
       <c r="I164" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J164" s="24" t="s">
         <v>417</v>
@@ -12228,10 +12228,10 @@
       </c>
       <c r="H165" s="24"/>
       <c r="I165" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J165" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K165" s="24" t="s">
         <v>752</v>
@@ -12259,10 +12259,10 @@
       </c>
       <c r="H166" s="24"/>
       <c r="I166" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J166" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K166" s="24" t="s">
         <v>756</v>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="H167" s="24"/>
       <c r="I167" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J167" s="24" t="s">
         <v>760</v>
@@ -12321,7 +12321,7 @@
       </c>
       <c r="H168" s="24"/>
       <c r="I168" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J168" s="24" t="s">
         <v>664</v>
@@ -12352,10 +12352,10 @@
       </c>
       <c r="H169" s="24"/>
       <c r="I169" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J169" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K169" s="24" t="s">
         <v>769</v>
@@ -12383,7 +12383,7 @@
       </c>
       <c r="H170" s="24"/>
       <c r="I170" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J170" s="24" t="s">
         <v>773</v>
@@ -12414,10 +12414,10 @@
       </c>
       <c r="H171" s="24"/>
       <c r="I171" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J171" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K171" s="24" t="s">
         <v>778</v>
@@ -12445,7 +12445,7 @@
       </c>
       <c r="H172" s="24"/>
       <c r="I172" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J172" s="24" t="s">
         <v>443</v>
@@ -12476,7 +12476,7 @@
       </c>
       <c r="H173" s="24"/>
       <c r="I173" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J173" s="24" t="s">
         <v>127</v>
@@ -12507,7 +12507,7 @@
       </c>
       <c r="H174" s="24"/>
       <c r="I174" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J174" s="24" t="s">
         <v>760</v>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="H175" s="24"/>
       <c r="I175" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J175" s="24" t="s">
         <v>794</v>
@@ -12569,7 +12569,7 @@
       </c>
       <c r="H176" s="24"/>
       <c r="I176" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J176" s="24" t="s">
         <v>799</v>
@@ -12600,7 +12600,7 @@
       </c>
       <c r="H177" s="24"/>
       <c r="I177" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J177" s="24" t="s">
         <v>197</v>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="H178" s="24"/>
       <c r="I178" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J178" s="24" t="s">
         <v>197</v>
@@ -12662,7 +12662,7 @@
       </c>
       <c r="H179" s="24"/>
       <c r="I179" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J179" s="24" t="s">
         <v>273</v>
@@ -12693,10 +12693,10 @@
       </c>
       <c r="H180" s="24"/>
       <c r="I180" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J180" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K180" s="24" t="s">
         <v>816</v>
@@ -12724,7 +12724,7 @@
       </c>
       <c r="H181" s="24"/>
       <c r="I181" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J181" s="24" t="s">
         <v>43</v>
@@ -12755,7 +12755,7 @@
       </c>
       <c r="H182" s="24"/>
       <c r="I182" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J182" s="24" t="s">
         <v>308</v>
@@ -12786,7 +12786,7 @@
       </c>
       <c r="H183" s="24"/>
       <c r="I183" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J183" s="24" t="s">
         <v>443</v>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="H184" s="24"/>
       <c r="I184" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J184" s="24" t="s">
         <v>832</v>
@@ -12848,7 +12848,7 @@
       </c>
       <c r="H185" s="24"/>
       <c r="I185" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J185" s="24" t="s">
         <v>837</v>
@@ -12879,7 +12879,7 @@
       </c>
       <c r="H186" s="24"/>
       <c r="I186" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J186" s="24" t="s">
         <v>359</v>
@@ -12910,7 +12910,7 @@
       </c>
       <c r="H187" s="24"/>
       <c r="I187" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J187" s="24" t="s">
         <v>699</v>
@@ -12941,10 +12941,10 @@
       </c>
       <c r="H188" s="24"/>
       <c r="I188" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J188" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K188" s="24" t="s">
         <v>850</v>
@@ -12972,7 +12972,7 @@
       </c>
       <c r="H189" s="24"/>
       <c r="I189" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J189" s="24" t="s">
         <v>625</v>
@@ -13003,10 +13003,10 @@
       </c>
       <c r="H190" s="24"/>
       <c r="I190" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J190" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K190" s="24" t="s">
         <v>859</v>
@@ -13034,7 +13034,7 @@
       </c>
       <c r="H191" s="24"/>
       <c r="I191" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J191" s="24" t="s">
         <v>863</v>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="H192" s="24"/>
       <c r="I192" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J192" s="24" t="s">
         <v>364</v>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="H193" s="24"/>
       <c r="I193" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J193" s="24" t="s">
         <v>709</v>
@@ -13127,7 +13127,7 @@
       </c>
       <c r="H194" s="24"/>
       <c r="I194" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J194" s="24" t="s">
         <v>625</v>
@@ -13158,7 +13158,7 @@
       </c>
       <c r="H195" s="24"/>
       <c r="I195" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J195" s="24" t="s">
         <v>880</v>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="H196" s="24"/>
       <c r="I196" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J196" s="24" t="s">
         <v>443</v>
@@ -13220,7 +13220,7 @@
       </c>
       <c r="H197" s="24"/>
       <c r="I197" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J197" s="24" t="s">
         <v>889</v>
@@ -13251,7 +13251,7 @@
       </c>
       <c r="H198" s="24"/>
       <c r="I198" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J198" s="24" t="s">
         <v>163</v>
@@ -13282,10 +13282,10 @@
       </c>
       <c r="H199" s="24"/>
       <c r="I199" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J199" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K199" s="24" t="s">
         <v>898</v>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="H200" s="24"/>
       <c r="I200" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J200" s="24" t="s">
         <v>902</v>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="H201" s="24"/>
       <c r="I201" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J201" s="24" t="s">
         <v>659</v>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="H202" s="24"/>
       <c r="I202" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J202" s="24" t="s">
         <v>911</v>
@@ -13406,7 +13406,7 @@
       </c>
       <c r="H203" s="24"/>
       <c r="I203" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J203" s="24" t="s">
         <v>916</v>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="H204" s="24"/>
       <c r="I204" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J204" s="24" t="s">
         <v>799</v>
@@ -13468,7 +13468,7 @@
       </c>
       <c r="H205" s="24"/>
       <c r="I205" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J205" s="24" t="s">
         <v>925</v>
@@ -13499,7 +13499,7 @@
       </c>
       <c r="H206" s="24"/>
       <c r="I206" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J206" s="24" t="s">
         <v>930</v>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="H207" s="24"/>
       <c r="I207" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J207" s="24" t="s">
         <v>935</v>
@@ -13561,7 +13561,7 @@
       </c>
       <c r="H208" s="24"/>
       <c r="I208" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J208" s="24" t="s">
         <v>935</v>
@@ -13592,7 +13592,7 @@
       </c>
       <c r="H209" s="24"/>
       <c r="I209" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J209" s="24" t="s">
         <v>364</v>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="H210" s="24"/>
       <c r="I210" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J210" s="24" t="s">
         <v>228</v>
@@ -13654,7 +13654,7 @@
       </c>
       <c r="H211" s="24"/>
       <c r="I211" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J211" s="24" t="s">
         <v>364</v>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="H212" s="24"/>
       <c r="I212" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J212" s="24" t="s">
         <v>197</v>
@@ -13716,10 +13716,10 @@
       </c>
       <c r="H213" s="24"/>
       <c r="I213" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J213" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K213" s="24" t="s">
         <v>960</v>
@@ -13747,7 +13747,7 @@
       </c>
       <c r="H214" s="24"/>
       <c r="I214" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J214" s="24" t="s">
         <v>228</v>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="H215" s="24"/>
       <c r="I215" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J215" s="24" t="s">
         <v>359</v>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="H216" s="24"/>
       <c r="I216" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J216" s="24" t="s">
         <v>443</v>
@@ -13840,7 +13840,7 @@
       </c>
       <c r="H217" s="24"/>
       <c r="I217" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J217" s="24" t="s">
         <v>976</v>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="H218" s="24"/>
       <c r="I218" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J218" s="24" t="s">
         <v>981</v>
@@ -13902,7 +13902,7 @@
       </c>
       <c r="H219" s="24"/>
       <c r="I219" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J219" s="24" t="s">
         <v>245</v>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="H220" s="24"/>
       <c r="I220" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J220" s="24" t="s">
         <v>981</v>
@@ -13964,7 +13964,7 @@
       </c>
       <c r="H221" s="24"/>
       <c r="I221" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J221" s="24" t="s">
         <v>994</v>
@@ -13995,10 +13995,10 @@
       </c>
       <c r="H222" s="24"/>
       <c r="I222" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J222" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K222" s="24" t="s">
         <v>999</v>
@@ -14026,7 +14026,7 @@
       </c>
       <c r="H223" s="24"/>
       <c r="I223" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J223" s="24" t="s">
         <v>373</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="H224" s="24"/>
       <c r="I224" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J224" s="24" t="s">
         <v>1007</v>
@@ -14088,7 +14088,7 @@
       </c>
       <c r="H225" s="24"/>
       <c r="I225" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J225" s="24" t="s">
         <v>1012</v>
@@ -14119,7 +14119,7 @@
       </c>
       <c r="H226" s="24"/>
       <c r="I226" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J226" s="24" t="s">
         <v>1017</v>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="H227" s="24"/>
       <c r="I227" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J227" s="24" t="s">
         <v>293</v>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="H228" s="24"/>
       <c r="I228" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J228" s="24" t="s">
         <v>1026</v>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="H229" s="24"/>
       <c r="I229" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J229" s="24" t="s">
         <v>722</v>
@@ -14243,7 +14243,7 @@
       </c>
       <c r="H230" s="24"/>
       <c r="I230" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J230" s="24" t="s">
         <v>1035</v>
@@ -14274,7 +14274,7 @@
       </c>
       <c r="H231" s="24"/>
       <c r="I231" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J231" s="24" t="s">
         <v>293</v>
@@ -14305,7 +14305,7 @@
       </c>
       <c r="H232" s="24"/>
       <c r="I232" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J232" s="24" t="s">
         <v>293</v>
@@ -14336,7 +14336,7 @@
       </c>
       <c r="H233" s="24"/>
       <c r="I233" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J233" s="24" t="s">
         <v>293</v>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="H234" s="24"/>
       <c r="I234" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J234" s="24" t="s">
         <v>568</v>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="H235" s="24"/>
       <c r="I235" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J235" s="24" t="s">
         <v>722</v>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="H236" s="24"/>
       <c r="I236" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J236" s="24" t="s">
         <v>1026</v>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="H237" s="24"/>
       <c r="I237" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J237" s="24" t="s">
         <v>722</v>
@@ -14491,7 +14491,7 @@
       </c>
       <c r="H238" s="24"/>
       <c r="I238" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J238" s="24" t="s">
         <v>722</v>
@@ -14522,10 +14522,10 @@
       </c>
       <c r="H239" s="24"/>
       <c r="I239" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J239" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K239" s="24" t="s">
         <v>1072</v>
@@ -14553,7 +14553,7 @@
       </c>
       <c r="H240" s="24"/>
       <c r="I240" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J240" s="24" t="s">
         <v>273</v>
@@ -14584,7 +14584,7 @@
       </c>
       <c r="H241" s="24"/>
       <c r="I241" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J241" s="24" t="s">
         <v>293</v>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="H242" s="24"/>
       <c r="I242" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J242" s="24" t="s">
         <v>1026</v>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="H243" s="24"/>
       <c r="I243" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J243" s="24" t="s">
         <v>722</v>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="H244" s="24"/>
       <c r="I244" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J244" s="24" t="s">
         <v>293</v>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="H245" s="24"/>
       <c r="I245" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J245" s="24" t="s">
         <v>484</v>
@@ -14739,7 +14739,7 @@
       </c>
       <c r="H246" s="24"/>
       <c r="I246" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J246" s="24" t="s">
         <v>568</v>
@@ -14770,7 +14770,7 @@
       </c>
       <c r="H247" s="24"/>
       <c r="I247" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J247" s="24" t="s">
         <v>484</v>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="H248" s="24"/>
       <c r="I248" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J248" s="24" t="s">
         <v>484</v>
@@ -14832,7 +14832,7 @@
       </c>
       <c r="H249" s="24"/>
       <c r="I249" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J249" s="24" t="s">
         <v>1017</v>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="H250" s="24"/>
       <c r="I250" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J250" s="24" t="s">
         <v>514</v>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="H251" s="24"/>
       <c r="I251" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J251" s="24" t="s">
         <v>1120</v>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="H252" s="24"/>
       <c r="I252" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J252" s="24" t="s">
         <v>568</v>
@@ -14956,7 +14956,7 @@
       </c>
       <c r="H253" s="24"/>
       <c r="I253" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J253" s="24" t="s">
         <v>694</v>
@@ -14987,10 +14987,10 @@
       </c>
       <c r="H254" s="24"/>
       <c r="I254" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J254" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J254" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K254" s="24" t="s">
         <v>1133</v>
@@ -15018,7 +15018,7 @@
       </c>
       <c r="H255" s="24"/>
       <c r="I255" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J255" s="24" t="s">
         <v>283</v>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="H256" s="24"/>
       <c r="I256" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J256" s="24" t="s">
         <v>1141</v>
@@ -15080,7 +15080,7 @@
       </c>
       <c r="H257" s="24"/>
       <c r="I257" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J257" s="24" t="s">
         <v>283</v>
@@ -15111,7 +15111,7 @@
       </c>
       <c r="H258" s="24"/>
       <c r="I258" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J258" s="24" t="s">
         <v>283</v>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="H259" s="24"/>
       <c r="I259" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J259" s="24" t="s">
         <v>1154</v>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="H260" s="24"/>
       <c r="I260" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J260" s="24" t="s">
         <v>43</v>
@@ -15204,7 +15204,7 @@
       </c>
       <c r="H261" s="24"/>
       <c r="I261" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J261" s="24" t="s">
         <v>288</v>
@@ -15235,7 +15235,7 @@
       </c>
       <c r="H262" s="24"/>
       <c r="I262" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J262" s="24" t="s">
         <v>1167</v>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="H263" s="24"/>
       <c r="I263" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J263" s="24" t="s">
         <v>1172</v>
@@ -15297,7 +15297,7 @@
       </c>
       <c r="H264" s="24"/>
       <c r="I264" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J264" s="24" t="s">
         <v>340</v>
@@ -15328,7 +15328,7 @@
       </c>
       <c r="H265" s="24"/>
       <c r="I265" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J265" s="24" t="s">
         <v>127</v>
@@ -15359,7 +15359,7 @@
       </c>
       <c r="H266" s="24"/>
       <c r="I266" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J266" s="24" t="s">
         <v>1185</v>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="H267" s="24"/>
       <c r="I267" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J267" s="24" t="s">
         <v>293</v>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="H268" s="24"/>
       <c r="I268" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J268" s="24" t="s">
         <v>760</v>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="H269" s="24"/>
       <c r="I269" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J269" s="24" t="s">
         <v>163</v>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="H270" s="24"/>
       <c r="I270" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J270" s="24" t="s">
         <v>43</v>
@@ -15514,7 +15514,7 @@
       </c>
       <c r="H271" s="24"/>
       <c r="I271" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J271" s="24" t="s">
         <v>245</v>
@@ -15545,7 +15545,7 @@
       </c>
       <c r="H272" s="24"/>
       <c r="I272" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J272" s="24" t="s">
         <v>484</v>
@@ -15576,7 +15576,7 @@
       </c>
       <c r="H273" s="24"/>
       <c r="I273" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J273" s="24" t="s">
         <v>158</v>
@@ -15607,7 +15607,7 @@
       </c>
       <c r="H274" s="24"/>
       <c r="I274" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J274" s="24" t="s">
         <v>117</v>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="H275" s="24"/>
       <c r="I275" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J275" s="24" t="s">
         <v>722</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="H276" s="24"/>
       <c r="I276" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J276" s="24" t="s">
         <v>364</v>
@@ -15700,7 +15700,7 @@
       </c>
       <c r="H277" s="24"/>
       <c r="I277" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J277" s="24" t="s">
         <v>197</v>
@@ -15731,7 +15731,7 @@
       </c>
       <c r="H278" s="24"/>
       <c r="I278" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J278" s="24" t="s">
         <v>1234</v>
@@ -15762,7 +15762,7 @@
       </c>
       <c r="H279" s="24"/>
       <c r="I279" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J279" s="24" t="s">
         <v>43</v>
@@ -15793,7 +15793,7 @@
       </c>
       <c r="H280" s="24"/>
       <c r="I280" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J280" s="24" t="s">
         <v>43</v>
@@ -15824,10 +15824,10 @@
       </c>
       <c r="H281" s="24"/>
       <c r="I281" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J281" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J281" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K281" s="24" t="s">
         <v>1247</v>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="H282" s="24"/>
       <c r="I282" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J282" s="24" t="s">
         <v>1251</v>
@@ -15886,7 +15886,7 @@
       </c>
       <c r="H283" s="24"/>
       <c r="I283" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J283" s="24" t="s">
         <v>359</v>
@@ -15917,7 +15917,7 @@
       </c>
       <c r="H284" s="24"/>
       <c r="I284" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J284" s="24" t="s">
         <v>1260</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="H285" s="24"/>
       <c r="I285" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J285" s="24" t="s">
         <v>760</v>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="H286" s="24"/>
       <c r="I286" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J286" s="24" t="s">
         <v>117</v>
@@ -16010,7 +16010,7 @@
       </c>
       <c r="H287" s="24"/>
       <c r="I287" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J287" s="24" t="s">
         <v>1273</v>
@@ -16041,7 +16041,7 @@
       </c>
       <c r="H288" s="24"/>
       <c r="I288" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J288" s="24" t="s">
         <v>127</v>
@@ -16072,7 +16072,7 @@
       </c>
       <c r="H289" s="24"/>
       <c r="I289" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J289" s="24" t="s">
         <v>245</v>
@@ -16103,7 +16103,7 @@
       </c>
       <c r="H290" s="24"/>
       <c r="I290" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J290" s="24" t="s">
         <v>1286</v>
@@ -16134,7 +16134,7 @@
       </c>
       <c r="H291" s="24"/>
       <c r="I291" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J291" s="24" t="s">
         <v>1291</v>
@@ -16165,7 +16165,7 @@
       </c>
       <c r="H292" s="24"/>
       <c r="I292" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J292" s="24" t="s">
         <v>293</v>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="H293" s="24"/>
       <c r="I293" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J293" s="24" t="s">
         <v>245</v>
@@ -16227,7 +16227,7 @@
       </c>
       <c r="H294" s="24"/>
       <c r="I294" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J294" s="24" t="s">
         <v>127</v>
@@ -16258,7 +16258,7 @@
       </c>
       <c r="H295" s="24"/>
       <c r="I295" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J295" s="24" t="s">
         <v>1308</v>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="H296" s="24"/>
       <c r="I296" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J296" s="24" t="s">
         <v>1308</v>
@@ -16320,7 +16320,7 @@
       </c>
       <c r="H297" s="24"/>
       <c r="I297" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J297" s="24" t="s">
         <v>1317</v>
@@ -16351,7 +16351,7 @@
       </c>
       <c r="H298" s="24"/>
       <c r="I298" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J298" s="24" t="s">
         <v>1322</v>
@@ -16382,7 +16382,7 @@
       </c>
       <c r="H299" s="24"/>
       <c r="I299" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J299" s="24" t="s">
         <v>1327</v>
@@ -16413,7 +16413,7 @@
       </c>
       <c r="H300" s="24"/>
       <c r="I300" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J300" s="24" t="s">
         <v>359</v>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="H301" s="24"/>
       <c r="I301" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J301" s="24" t="s">
         <v>359</v>
@@ -16473,7 +16473,7 @@
       </c>
       <c r="H302" s="24"/>
       <c r="I302" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J302" s="24" t="s">
         <v>359</v>
@@ -16503,7 +16503,7 @@
       </c>
       <c r="H303" s="24"/>
       <c r="I303" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J303" s="24" t="s">
         <v>1344</v>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="H304" s="24"/>
       <c r="I304" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J304" s="24" t="s">
         <v>568</v>
@@ -16563,7 +16563,7 @@
       </c>
       <c r="H305" s="24"/>
       <c r="I305" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J305" s="24" t="s">
         <v>1154</v>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="H306" s="24"/>
       <c r="I306" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J306" s="24" t="s">
         <v>1357</v>
@@ -16623,7 +16623,7 @@
       </c>
       <c r="H307" s="24"/>
       <c r="I307" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J307" s="24" t="s">
         <v>359</v>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="H308" s="24"/>
       <c r="I308" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J308" s="24" t="s">
         <v>1327</v>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="H309" s="24"/>
       <c r="I309" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J309" s="24" t="s">
         <v>916</v>
@@ -16713,7 +16713,7 @@
       </c>
       <c r="H310" s="24"/>
       <c r="I310" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J310" s="24" t="s">
         <v>568</v>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="H311" s="24"/>
       <c r="I311" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J311" s="24" t="s">
         <v>484</v>
@@ -16773,7 +16773,7 @@
       </c>
       <c r="H312" s="24"/>
       <c r="I312" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J312" s="24" t="s">
         <v>484</v>
@@ -16803,7 +16803,7 @@
       </c>
       <c r="H313" s="24"/>
       <c r="I313" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J313" s="24" t="s">
         <v>484</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="H314" s="24"/>
       <c r="I314" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J314" s="24" t="s">
         <v>197</v>
@@ -16863,10 +16863,10 @@
       </c>
       <c r="H315" s="24"/>
       <c r="I315" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J315" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J315" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K315" s="24" t="s">
         <v>1394</v>
@@ -16893,10 +16893,10 @@
       </c>
       <c r="H316" s="24"/>
       <c r="I316" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J316" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J316" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K316" s="24" t="s">
         <v>1398</v>
@@ -16923,10 +16923,10 @@
       </c>
       <c r="H317" s="24"/>
       <c r="I317" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J317" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J317" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K317" s="24" t="s">
         <v>1402</v>
@@ -16953,7 +16953,7 @@
       </c>
       <c r="H318" s="24"/>
       <c r="I318" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J318" s="24" t="s">
         <v>722</v>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="H319" s="24"/>
       <c r="I319" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J319" s="24" t="s">
         <v>43</v>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="H320" s="24"/>
       <c r="I320" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J320" s="24" t="s">
         <v>197</v>
@@ -17043,7 +17043,7 @@
       </c>
       <c r="H321" s="24"/>
       <c r="I321" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J321" s="24" t="s">
         <v>43</v>
@@ -17073,10 +17073,10 @@
       </c>
       <c r="H322" s="24"/>
       <c r="I322" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J322" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J322" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K322" s="24" t="s">
         <v>1422</v>
@@ -17103,7 +17103,7 @@
       </c>
       <c r="H323" s="24"/>
       <c r="I323" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J323" s="24" t="s">
         <v>197</v>
@@ -17133,10 +17133,10 @@
       </c>
       <c r="H324" s="24"/>
       <c r="I324" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J324" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K324" s="24" t="s">
         <v>1430</v>
@@ -17163,10 +17163,10 @@
       </c>
       <c r="H325" s="24"/>
       <c r="I325" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J325" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K325" s="24" t="s">
         <v>1434</v>
@@ -17193,7 +17193,7 @@
       </c>
       <c r="H326" s="24"/>
       <c r="I326" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J326" s="24" t="s">
         <v>197</v>
@@ -17223,7 +17223,7 @@
       </c>
       <c r="H327" s="24"/>
       <c r="I327" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J327" s="24" t="s">
         <v>197</v>
@@ -17253,7 +17253,7 @@
       </c>
       <c r="H328" s="24"/>
       <c r="I328" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J328" s="24" t="s">
         <v>722</v>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="H329" s="24"/>
       <c r="I329" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J329" s="24" t="s">
         <v>43</v>
@@ -17313,7 +17313,7 @@
       </c>
       <c r="H330" s="24"/>
       <c r="I330" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J330" s="24" t="s">
         <v>43</v>
@@ -17343,7 +17343,7 @@
       </c>
       <c r="H331" s="24"/>
       <c r="I331" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J331" s="24" t="s">
         <v>29</v>
@@ -17373,10 +17373,10 @@
       </c>
       <c r="H332" s="24"/>
       <c r="I332" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J332" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K332" s="24" t="s">
         <v>1462</v>
@@ -17403,7 +17403,7 @@
       </c>
       <c r="H333" s="24"/>
       <c r="I333" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J333" s="24" t="s">
         <v>43</v>
@@ -17433,7 +17433,7 @@
       </c>
       <c r="H334" s="24"/>
       <c r="I334" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J334" s="24" t="s">
         <v>916</v>
@@ -17463,7 +17463,7 @@
       </c>
       <c r="H335" s="24"/>
       <c r="I335" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J335" s="24" t="s">
         <v>1474</v>
@@ -17493,10 +17493,10 @@
       </c>
       <c r="H336" s="24"/>
       <c r="I336" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J336" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J336" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K336" s="24" t="s">
         <v>1479</v>
@@ -17523,7 +17523,7 @@
       </c>
       <c r="H337" s="24"/>
       <c r="I337" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J337" s="24" t="s">
         <v>163</v>
@@ -17553,7 +17553,7 @@
       </c>
       <c r="H338" s="24"/>
       <c r="I338" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J338" s="24" t="s">
         <v>1487</v>
@@ -17583,7 +17583,7 @@
       </c>
       <c r="H339" s="24"/>
       <c r="I339" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J339" s="24" t="s">
         <v>916</v>
@@ -17613,7 +17613,7 @@
       </c>
       <c r="H340" s="24"/>
       <c r="I340" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J340" s="24" t="s">
         <v>163</v>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="H341" s="24"/>
       <c r="I341" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J341" s="24" t="s">
         <v>163</v>
@@ -17673,7 +17673,7 @@
       </c>
       <c r="H342" s="24"/>
       <c r="I342" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J342" s="24" t="s">
         <v>484</v>
@@ -17703,7 +17703,7 @@
       </c>
       <c r="H343" s="24"/>
       <c r="I343" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J343" s="24" t="s">
         <v>1017</v>
@@ -17733,7 +17733,7 @@
       </c>
       <c r="H344" s="24"/>
       <c r="I344" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J344" s="24" t="s">
         <v>163</v>
@@ -17763,7 +17763,7 @@
       </c>
       <c r="H345" s="24"/>
       <c r="I345" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J345" s="24" t="s">
         <v>197</v>
@@ -17793,7 +17793,7 @@
       </c>
       <c r="H346" s="24"/>
       <c r="I346" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J346" s="24" t="s">
         <v>197</v>
@@ -17823,7 +17823,7 @@
       </c>
       <c r="H347" s="24"/>
       <c r="I347" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J347" s="24" t="s">
         <v>916</v>
@@ -17853,7 +17853,7 @@
       </c>
       <c r="H348" s="24"/>
       <c r="I348" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J348" s="24" t="s">
         <v>163</v>
@@ -17883,10 +17883,10 @@
       </c>
       <c r="H349" s="24"/>
       <c r="I349" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J349" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K349" s="24" t="s">
         <v>1532</v>
@@ -17913,7 +17913,7 @@
       </c>
       <c r="H350" s="24"/>
       <c r="I350" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J350" s="24" t="s">
         <v>722</v>
@@ -17943,10 +17943,10 @@
       </c>
       <c r="H351" s="24"/>
       <c r="I351" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J351" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J351" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K351" s="24" t="s">
         <v>1540</v>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="H352" s="24"/>
       <c r="I352" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J352" s="24" t="s">
         <v>457</v>
@@ -18003,7 +18003,7 @@
       </c>
       <c r="H353" s="24"/>
       <c r="I353" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J353" s="24" t="s">
         <v>197</v>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="H354" s="24"/>
       <c r="I354" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J354" s="24" t="s">
         <v>163</v>
@@ -18063,10 +18063,10 @@
       </c>
       <c r="H355" s="24"/>
       <c r="I355" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J355" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K355" s="24" t="s">
         <v>1556</v>
@@ -18093,7 +18093,7 @@
       </c>
       <c r="H356" s="24"/>
       <c r="I356" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J356" s="24" t="s">
         <v>514</v>
@@ -18123,7 +18123,7 @@
       </c>
       <c r="H357" s="24"/>
       <c r="I357" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J357" s="24" t="s">
         <v>1017</v>
@@ -18153,7 +18153,7 @@
       </c>
       <c r="H358" s="24"/>
       <c r="I358" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J358" s="24" t="s">
         <v>1017</v>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="H359" s="24"/>
       <c r="I359" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J359" s="24" t="s">
         <v>1017</v>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="H360" s="24"/>
       <c r="I360" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J360" s="24" t="s">
         <v>1017</v>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="H361" s="24"/>
       <c r="I361" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J361" s="24" t="s">
         <v>1017</v>
@@ -18273,7 +18273,7 @@
       </c>
       <c r="H362" s="24"/>
       <c r="I362" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J362" s="24" t="s">
         <v>1017</v>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="H363" s="24"/>
       <c r="I363" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J363" s="24" t="s">
         <v>43</v>
@@ -18333,10 +18333,10 @@
       </c>
       <c r="H364" s="24"/>
       <c r="I364" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J364" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K364" s="24" t="s">
         <v>1592</v>
@@ -18363,7 +18363,7 @@
       </c>
       <c r="H365" s="24"/>
       <c r="I365" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J365" s="24" t="s">
         <v>417</v>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="H366" s="24"/>
       <c r="I366" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J366" s="24" t="s">
         <v>722</v>
@@ -18423,7 +18423,7 @@
       </c>
       <c r="H367" s="24"/>
       <c r="I367" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J367" s="24" t="s">
         <v>163</v>
@@ -18453,7 +18453,7 @@
       </c>
       <c r="H368" s="24"/>
       <c r="I368" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J368" s="24" t="s">
         <v>916</v>
@@ -18483,7 +18483,7 @@
       </c>
       <c r="H369" s="24"/>
       <c r="I369" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J369" s="24" t="s">
         <v>163</v>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="H370" s="24"/>
       <c r="I370" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J370" s="24" t="s">
         <v>163</v>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="H371" s="24"/>
       <c r="I371" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J371" s="24" t="s">
         <v>722</v>
@@ -18573,10 +18573,10 @@
       </c>
       <c r="H372" s="24"/>
       <c r="I372" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J372" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K372" s="24" t="s">
         <v>1624</v>
@@ -18603,10 +18603,10 @@
       </c>
       <c r="H373" s="24"/>
       <c r="I373" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J373" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K373" s="24" t="s">
         <v>1628</v>
@@ -18633,10 +18633,10 @@
       </c>
       <c r="H374" s="24"/>
       <c r="I374" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J374" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K374" s="24" t="s">
         <v>1632</v>
@@ -18663,10 +18663,10 @@
       </c>
       <c r="H375" s="24"/>
       <c r="I375" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J375" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K375" s="24" t="s">
         <v>1636</v>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="H376" s="24"/>
       <c r="I376" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J376" s="24" t="s">
         <v>43</v>
@@ -18723,7 +18723,7 @@
       </c>
       <c r="H377" s="24"/>
       <c r="I377" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J377" s="24" t="s">
         <v>340</v>
@@ -18753,10 +18753,10 @@
       </c>
       <c r="H378" s="24"/>
       <c r="I378" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J378" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K378" s="24" t="s">
         <v>1648</v>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="H379" s="24"/>
       <c r="I379" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J379" s="24" t="s">
         <v>43</v>
@@ -18813,7 +18813,7 @@
       </c>
       <c r="H380" s="24"/>
       <c r="I380" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J380" s="24" t="s">
         <v>1656</v>
@@ -18843,7 +18843,7 @@
       </c>
       <c r="H381" s="24"/>
       <c r="I381" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J381" s="24" t="s">
         <v>1656</v>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="H382" s="24"/>
       <c r="I382" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J382" s="24" t="s">
         <v>178</v>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="H383" s="24"/>
       <c r="I383" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J383" s="24" t="s">
         <v>340</v>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="H384" s="24"/>
       <c r="I384" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J384" s="24" t="s">
         <v>467</v>
@@ -18963,7 +18963,7 @@
       </c>
       <c r="H385" s="24"/>
       <c r="I385" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J385" s="24" t="s">
         <v>1677</v>
@@ -18993,7 +18993,7 @@
       </c>
       <c r="H386" s="24"/>
       <c r="I386" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J386" s="24" t="s">
         <v>43</v>
@@ -19023,7 +19023,7 @@
       </c>
       <c r="H387" s="24"/>
       <c r="I387" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J387" s="24" t="s">
         <v>1686</v>
@@ -19053,7 +19053,7 @@
       </c>
       <c r="H388" s="24"/>
       <c r="I388" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J388" s="24" t="s">
         <v>1691</v>
@@ -19083,7 +19083,7 @@
       </c>
       <c r="H389" s="24"/>
       <c r="I389" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J389" s="24" t="s">
         <v>925</v>
@@ -19113,7 +19113,7 @@
       </c>
       <c r="H390" s="24"/>
       <c r="I390" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J390" s="24" t="s">
         <v>1035</v>
@@ -19143,7 +19143,7 @@
       </c>
       <c r="H391" s="24"/>
       <c r="I391" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J391" s="24" t="s">
         <v>245</v>
@@ -19173,7 +19173,7 @@
       </c>
       <c r="H392" s="24"/>
       <c r="I392" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J392" s="24" t="s">
         <v>349</v>
@@ -19203,7 +19203,7 @@
       </c>
       <c r="H393" s="24"/>
       <c r="I393" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J393" s="24" t="s">
         <v>43</v>
@@ -19233,7 +19233,7 @@
       </c>
       <c r="H394" s="24"/>
       <c r="I394" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J394" s="24" t="s">
         <v>1716</v>
@@ -19263,10 +19263,10 @@
       </c>
       <c r="H395" s="24"/>
       <c r="I395" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J395" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J395" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K395" s="24" t="s">
         <v>1721</v>
@@ -19293,7 +19293,7 @@
       </c>
       <c r="H396" s="24"/>
       <c r="I396" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J396" s="24" t="s">
         <v>573</v>
@@ -19323,10 +19323,10 @@
       </c>
       <c r="H397" s="24"/>
       <c r="I397" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J397" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K397" s="24" t="s">
         <v>1729</v>
@@ -19353,7 +19353,7 @@
       </c>
       <c r="H398" s="24"/>
       <c r="I398" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J398" s="24" t="s">
         <v>1733</v>
@@ -19383,7 +19383,7 @@
       </c>
       <c r="H399" s="24"/>
       <c r="I399" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J399" s="24" t="s">
         <v>1738</v>
@@ -19413,7 +19413,7 @@
       </c>
       <c r="H400" s="24"/>
       <c r="I400" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J400" s="24" t="s">
         <v>1743</v>
@@ -19443,7 +19443,7 @@
       </c>
       <c r="H401" s="24"/>
       <c r="I401" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J401" s="24" t="s">
         <v>1748</v>
@@ -19473,7 +19473,7 @@
       </c>
       <c r="H402" s="24"/>
       <c r="I402" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J402" s="24" t="s">
         <v>1753</v>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="H403" s="24"/>
       <c r="I403" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J403" s="24" t="s">
         <v>1758</v>
@@ -19533,7 +19533,7 @@
       </c>
       <c r="H404" s="24"/>
       <c r="I404" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J404" s="24" t="s">
         <v>1763</v>
@@ -19563,7 +19563,7 @@
       </c>
       <c r="H405" s="24"/>
       <c r="I405" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J405" s="24" t="s">
         <v>722</v>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="H406" s="24"/>
       <c r="I406" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J406" s="24" t="s">
         <v>514</v>
@@ -19623,7 +19623,7 @@
       </c>
       <c r="H407" s="24"/>
       <c r="I407" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J407" s="24" t="s">
         <v>1776</v>
@@ -19653,10 +19653,10 @@
       </c>
       <c r="H408" s="24"/>
       <c r="I408" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J408" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J408" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K408" s="24" t="s">
         <v>1781</v>
@@ -19683,7 +19683,7 @@
       </c>
       <c r="H409" s="24"/>
       <c r="I409" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J409" s="24" t="s">
         <v>467</v>
@@ -19713,7 +19713,7 @@
       </c>
       <c r="H410" s="24"/>
       <c r="I410" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J410" s="24" t="s">
         <v>140</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="H411" s="24"/>
       <c r="I411" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J411" s="24" t="s">
         <v>1793</v>
@@ -19773,7 +19773,7 @@
       </c>
       <c r="H412" s="24"/>
       <c r="I412" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J412" s="24" t="s">
         <v>916</v>
@@ -19803,7 +19803,7 @@
       </c>
       <c r="H413" s="24"/>
       <c r="I413" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J413" s="24" t="s">
         <v>722</v>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="H414" s="24"/>
       <c r="I414" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J414" s="24" t="s">
         <v>288</v>
@@ -19863,7 +19863,7 @@
       </c>
       <c r="H415" s="24"/>
       <c r="I415" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J415" s="24" t="s">
         <v>1810</v>
@@ -19893,7 +19893,7 @@
       </c>
       <c r="H416" s="24"/>
       <c r="I416" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J416" s="24" t="s">
         <v>722</v>
@@ -19923,10 +19923,10 @@
       </c>
       <c r="H417" s="24"/>
       <c r="I417" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J417" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K417" s="24" t="s">
         <v>1819</v>
@@ -19953,7 +19953,7 @@
       </c>
       <c r="H418" s="24"/>
       <c r="I418" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J418" s="24" t="s">
         <v>925</v>
@@ -19983,7 +19983,7 @@
       </c>
       <c r="H419" s="24"/>
       <c r="I419" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J419" s="24" t="s">
         <v>1017</v>
@@ -20013,7 +20013,7 @@
       </c>
       <c r="H420" s="24"/>
       <c r="I420" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J420" s="24" t="s">
         <v>127</v>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="H421" s="24"/>
       <c r="I421" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J421" s="24" t="s">
         <v>1835</v>
@@ -20073,7 +20073,7 @@
       </c>
       <c r="H422" s="24"/>
       <c r="I422" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J422" s="24" t="s">
         <v>1656</v>
@@ -20103,7 +20103,7 @@
       </c>
       <c r="H423" s="24"/>
       <c r="I423" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J423" s="24" t="s">
         <v>1844</v>
@@ -20133,7 +20133,7 @@
       </c>
       <c r="H424" s="24"/>
       <c r="I424" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J424" s="24" t="s">
         <v>1849</v>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="H425" s="24"/>
       <c r="I425" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J425" s="24" t="s">
         <v>1017</v>
@@ -20193,7 +20193,7 @@
       </c>
       <c r="H426" s="24"/>
       <c r="I426" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J426" s="24" t="s">
         <v>1327</v>
@@ -20223,7 +20223,7 @@
       </c>
       <c r="H427" s="24"/>
       <c r="I427" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J427" s="24" t="s">
         <v>704</v>
@@ -20253,7 +20253,7 @@
       </c>
       <c r="H428" s="24"/>
       <c r="I428" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J428" s="24" t="s">
         <v>1866</v>
@@ -20283,7 +20283,7 @@
       </c>
       <c r="H429" s="24"/>
       <c r="I429" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J429" s="24" t="s">
         <v>293</v>
@@ -20313,7 +20313,7 @@
       </c>
       <c r="H430" s="24"/>
       <c r="I430" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J430" s="24" t="s">
         <v>1875</v>
@@ -20343,7 +20343,7 @@
       </c>
       <c r="H431" s="24"/>
       <c r="I431" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J431" s="24" t="s">
         <v>443</v>
@@ -20373,7 +20373,7 @@
       </c>
       <c r="H432" s="24"/>
       <c r="I432" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J432" s="24" t="s">
         <v>1884</v>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="H433" s="24"/>
       <c r="I433" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J433" s="24" t="s">
         <v>1686</v>
@@ -20433,10 +20433,10 @@
       </c>
       <c r="H434" s="24"/>
       <c r="I434" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J434" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K434" s="24" t="s">
         <v>1893</v>
@@ -20463,7 +20463,7 @@
       </c>
       <c r="H435" s="24"/>
       <c r="I435" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J435" s="24" t="s">
         <v>1897</v>
@@ -20493,7 +20493,7 @@
       </c>
       <c r="H436" s="24"/>
       <c r="I436" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J436" s="24" t="s">
         <v>1902</v>
@@ -20523,7 +20523,7 @@
       </c>
       <c r="H437" s="24"/>
       <c r="I437" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J437" s="24" t="s">
         <v>1907</v>
@@ -20553,7 +20553,7 @@
       </c>
       <c r="H438" s="24"/>
       <c r="I438" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J438" s="24" t="s">
         <v>43</v>
@@ -20583,7 +20583,7 @@
       </c>
       <c r="H439" s="24"/>
       <c r="I439" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J439" s="24" t="s">
         <v>43</v>
@@ -20613,7 +20613,7 @@
       </c>
       <c r="H440" s="24"/>
       <c r="I440" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J440" s="24" t="s">
         <v>43</v>
@@ -20643,7 +20643,7 @@
       </c>
       <c r="H441" s="24"/>
       <c r="I441" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J441" s="24" t="s">
         <v>457</v>
@@ -20673,10 +20673,10 @@
       </c>
       <c r="H442" s="24"/>
       <c r="I442" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J442" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J442" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K442" s="24" t="s">
         <v>1928</v>
@@ -20703,7 +20703,7 @@
       </c>
       <c r="H443" s="24"/>
       <c r="I443" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J443" s="24" t="s">
         <v>364</v>
@@ -20733,7 +20733,7 @@
       </c>
       <c r="H444" s="24"/>
       <c r="I444" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J444" s="24" t="s">
         <v>1936</v>
@@ -20763,7 +20763,7 @@
       </c>
       <c r="H445" s="24"/>
       <c r="I445" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J445" s="24" t="s">
         <v>1941</v>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="H446" s="24"/>
       <c r="I446" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J446" s="24" t="s">
         <v>1946</v>
@@ -20823,7 +20823,7 @@
       </c>
       <c r="H447" s="24"/>
       <c r="I447" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J447" s="24" t="s">
         <v>359</v>
@@ -20853,7 +20853,7 @@
       </c>
       <c r="H448" s="24"/>
       <c r="I448" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J448" s="24" t="s">
         <v>127</v>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="H449" s="24"/>
       <c r="I449" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J449" s="24" t="s">
         <v>127</v>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="H450" s="24"/>
       <c r="I450" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J450" s="24" t="s">
         <v>1327</v>
@@ -20943,7 +20943,7 @@
       </c>
       <c r="H451" s="24"/>
       <c r="I451" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J451" s="24" t="s">
         <v>158</v>
@@ -20973,7 +20973,7 @@
       </c>
       <c r="H452" s="24"/>
       <c r="I452" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J452" s="24" t="s">
         <v>1026</v>
@@ -21003,7 +21003,7 @@
       </c>
       <c r="H453" s="24"/>
       <c r="I453" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J453" s="24" t="s">
         <v>1975</v>
@@ -21033,7 +21033,7 @@
       </c>
       <c r="H454" s="24"/>
       <c r="I454" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J454" s="24" t="s">
         <v>1980</v>
@@ -21063,7 +21063,7 @@
       </c>
       <c r="H455" s="24"/>
       <c r="I455" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J455" s="24" t="s">
         <v>1980</v>
@@ -21093,7 +21093,7 @@
       </c>
       <c r="H456" s="24"/>
       <c r="I456" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J456" s="24" t="s">
         <v>127</v>
@@ -21123,7 +21123,7 @@
       </c>
       <c r="H457" s="24"/>
       <c r="I457" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J457" s="24" t="s">
         <v>1993</v>
@@ -21153,7 +21153,7 @@
       </c>
       <c r="H458" s="24"/>
       <c r="I458" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J458" s="24" t="s">
         <v>359</v>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="H459" s="24"/>
       <c r="I459" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J459" s="24" t="s">
         <v>140</v>
@@ -21213,7 +21213,7 @@
       </c>
       <c r="H460" s="24"/>
       <c r="I460" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J460" s="24" t="s">
         <v>245</v>
@@ -21243,7 +21243,7 @@
       </c>
       <c r="H461" s="24"/>
       <c r="I461" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J461" s="24" t="s">
         <v>2010</v>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="H462" s="24"/>
       <c r="I462" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J462" s="24" t="s">
         <v>2015</v>
@@ -21303,7 +21303,7 @@
       </c>
       <c r="H463" s="24"/>
       <c r="I463" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J463" s="24" t="s">
         <v>2020</v>
@@ -21333,7 +21333,7 @@
       </c>
       <c r="H464" s="24"/>
       <c r="I464" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J464" s="24" t="s">
         <v>2025</v>
@@ -21363,7 +21363,7 @@
       </c>
       <c r="H465" s="24"/>
       <c r="I465" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J465" s="24" t="s">
         <v>2030</v>
@@ -21393,7 +21393,7 @@
       </c>
       <c r="H466" s="24"/>
       <c r="I466" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J466" s="24" t="s">
         <v>2035</v>
@@ -21423,7 +21423,7 @@
       </c>
       <c r="H467" s="24"/>
       <c r="I467" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J467" s="24" t="s">
         <v>359</v>
@@ -21453,7 +21453,7 @@
       </c>
       <c r="H468" s="24"/>
       <c r="I468" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J468" s="24" t="s">
         <v>250</v>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="H469" s="24"/>
       <c r="I469" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J469" s="24" t="s">
         <v>2048</v>
@@ -21513,7 +21513,7 @@
       </c>
       <c r="H470" s="24"/>
       <c r="I470" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J470" s="24" t="s">
         <v>704</v>
@@ -21543,7 +21543,7 @@
       </c>
       <c r="H471" s="24"/>
       <c r="I471" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J471" s="24" t="s">
         <v>2057</v>
@@ -21573,7 +21573,7 @@
       </c>
       <c r="H472" s="24"/>
       <c r="I472" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J472" s="24" t="s">
         <v>2062</v>
@@ -21603,7 +21603,7 @@
       </c>
       <c r="H473" s="24"/>
       <c r="I473" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J473" s="24" t="s">
         <v>2067</v>
@@ -21633,7 +21633,7 @@
       </c>
       <c r="H474" s="24"/>
       <c r="I474" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J474" s="24" t="s">
         <v>443</v>
@@ -21663,7 +21663,7 @@
       </c>
       <c r="H475" s="24"/>
       <c r="I475" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J475" s="24" t="s">
         <v>163</v>
@@ -21693,7 +21693,7 @@
       </c>
       <c r="H476" s="24"/>
       <c r="I476" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J476" s="24" t="s">
         <v>163</v>
@@ -21723,7 +21723,7 @@
       </c>
       <c r="H477" s="24"/>
       <c r="I477" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J477" s="24" t="s">
         <v>173</v>
@@ -21753,7 +21753,7 @@
       </c>
       <c r="H478" s="24"/>
       <c r="I478" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J478" s="24" t="s">
         <v>799</v>
@@ -21783,7 +21783,7 @@
       </c>
       <c r="H479" s="24"/>
       <c r="I479" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J479" s="24" t="s">
         <v>163</v>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="H480" s="24"/>
       <c r="I480" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J480" s="24" t="s">
         <v>443</v>
@@ -21843,7 +21843,7 @@
       </c>
       <c r="H481" s="24"/>
       <c r="I481" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J481" s="24" t="s">
         <v>163</v>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="H482" s="24"/>
       <c r="I482" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J482" s="24" t="s">
         <v>43</v>
@@ -21903,7 +21903,7 @@
       </c>
       <c r="H483" s="24"/>
       <c r="I483" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J483" s="24" t="s">
         <v>2108</v>
@@ -21933,7 +21933,7 @@
       </c>
       <c r="H484" s="24"/>
       <c r="I484" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J484" s="24" t="s">
         <v>2113</v>
@@ -21963,7 +21963,7 @@
       </c>
       <c r="H485" s="24"/>
       <c r="I485" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J485" s="24" t="s">
         <v>192</v>
@@ -21993,7 +21993,7 @@
       </c>
       <c r="H486" s="24"/>
       <c r="I486" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J486" s="24" t="s">
         <v>1686</v>
@@ -22023,7 +22023,7 @@
       </c>
       <c r="H487" s="24"/>
       <c r="I487" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J487" s="24" t="s">
         <v>2126</v>
@@ -22053,10 +22053,10 @@
       </c>
       <c r="H488" s="24"/>
       <c r="I488" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="J488" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="J488" s="24" t="s">
-        <v>49</v>
       </c>
       <c r="K488" s="24" t="s">
         <v>2131</v>
@@ -22083,7 +22083,7 @@
       </c>
       <c r="H489" s="24"/>
       <c r="I489" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J489" s="24" t="s">
         <v>313</v>
@@ -22113,7 +22113,7 @@
       </c>
       <c r="H490" s="24"/>
       <c r="I490" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J490" s="24" t="s">
         <v>2139</v>
@@ -22143,7 +22143,7 @@
       </c>
       <c r="H491" s="24"/>
       <c r="I491" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J491" s="24" t="s">
         <v>364</v>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="H492" s="24"/>
       <c r="I492" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J492" s="24" t="s">
         <v>1251</v>
@@ -22203,7 +22203,7 @@
       </c>
       <c r="H493" s="24"/>
       <c r="I493" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J493" s="24" t="s">
         <v>298</v>
@@ -22233,7 +22233,7 @@
       </c>
       <c r="H494" s="24"/>
       <c r="I494" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J494" s="24" t="s">
         <v>925</v>
@@ -22263,7 +22263,7 @@
       </c>
       <c r="H495" s="24"/>
       <c r="I495" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J495" s="24" t="s">
         <v>1026</v>
@@ -22293,7 +22293,7 @@
       </c>
       <c r="H496" s="24"/>
       <c r="I496" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J496" s="24" t="s">
         <v>2164</v>
@@ -22323,7 +22323,7 @@
       </c>
       <c r="H497" s="24"/>
       <c r="I497" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J497" s="24" t="s">
         <v>2169</v>
@@ -22353,7 +22353,7 @@
       </c>
       <c r="H498" s="24"/>
       <c r="I498" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J498" s="24" t="s">
         <v>2164</v>
@@ -22383,7 +22383,7 @@
       </c>
       <c r="H499" s="24"/>
       <c r="I499" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J499" s="24" t="s">
         <v>2178</v>
@@ -22413,7 +22413,7 @@
       </c>
       <c r="H500" s="24"/>
       <c r="I500" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J500" s="24" t="s">
         <v>1691</v>
@@ -22443,7 +22443,7 @@
       </c>
       <c r="H501" s="24"/>
       <c r="I501" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J501" s="24" t="s">
         <v>349</v>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="H502" s="24"/>
       <c r="I502" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J502" s="24" t="s">
         <v>2191</v>
@@ -22503,7 +22503,7 @@
       </c>
       <c r="H503" s="24"/>
       <c r="I503" s="24" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J503" s="24" t="s">
         <v>43</v>
